--- a/data/pca/factorExposure/factorExposure_2014-09-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.007750147323726525</v>
+        <v>0.01904454409134696</v>
       </c>
       <c r="C2">
-        <v>-0.1137840065389497</v>
+        <v>-0.07198118718997779</v>
       </c>
       <c r="D2">
-        <v>-0.001356560779988893</v>
+        <v>-0.03071622063187061</v>
       </c>
       <c r="E2">
-        <v>-0.2318466973336147</v>
+        <v>-0.0523122204155358</v>
       </c>
       <c r="F2">
-        <v>0.01138116254509782</v>
+        <v>-0.1514499234266564</v>
       </c>
       <c r="G2">
-        <v>0.09326087179081308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.01329459279158328</v>
+      </c>
+      <c r="H2">
+        <v>0.0578430821968127</v>
+      </c>
+      <c r="I2">
+        <v>-0.02753349596932728</v>
+      </c>
+      <c r="J2">
+        <v>-0.02716242876378465</v>
+      </c>
+      <c r="K2">
+        <v>0.1726269162739889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01764860476522916</v>
+        <v>0.01843063568788642</v>
       </c>
       <c r="C4">
-        <v>-0.1642491400956743</v>
+        <v>-0.1435675831813489</v>
       </c>
       <c r="D4">
-        <v>0.003673262844900029</v>
+        <v>-0.06025664308364226</v>
       </c>
       <c r="E4">
-        <v>-0.06285786495118845</v>
+        <v>0.02602829519635576</v>
       </c>
       <c r="F4">
-        <v>-0.08828035073829606</v>
+        <v>-0.06629520701857355</v>
       </c>
       <c r="G4">
-        <v>0.009966955398380708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.01604228123735658</v>
+      </c>
+      <c r="H4">
+        <v>0.09117503889476249</v>
+      </c>
+      <c r="I4">
+        <v>-0.09943923915011732</v>
+      </c>
+      <c r="J4">
+        <v>-0.07142636501777577</v>
+      </c>
+      <c r="K4">
+        <v>0.1613169965171179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.02356236003553688</v>
+        <v>0.03768372419820647</v>
       </c>
       <c r="C6">
-        <v>-0.07876636559479522</v>
+        <v>-0.08653654186168105</v>
       </c>
       <c r="D6">
-        <v>0.04680335427830847</v>
+        <v>-0.02905221963792793</v>
       </c>
       <c r="E6">
-        <v>-0.06696125666787836</v>
+        <v>-0.04370051469453914</v>
       </c>
       <c r="F6">
-        <v>-0.02613935321037196</v>
+        <v>-0.02682474980955786</v>
       </c>
       <c r="G6">
-        <v>-0.01603422341585127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.04141152382351048</v>
+      </c>
+      <c r="H6">
+        <v>0.03234732870207208</v>
+      </c>
+      <c r="I6">
+        <v>-0.004228276454562191</v>
+      </c>
+      <c r="J6">
+        <v>0.08939595376431583</v>
+      </c>
+      <c r="K6">
+        <v>0.08804559501953203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.002231171066751147</v>
+        <v>0.01857699065697677</v>
       </c>
       <c r="C7">
-        <v>-0.06557386538256431</v>
+        <v>-0.07348039648489108</v>
       </c>
       <c r="D7">
-        <v>0.02988085815986231</v>
+        <v>-0.02715623985432064</v>
       </c>
       <c r="E7">
-        <v>-0.02513411158450119</v>
+        <v>0.01553109275308853</v>
       </c>
       <c r="F7">
-        <v>-0.04851233393306686</v>
+        <v>0.001990728229285701</v>
       </c>
       <c r="G7">
-        <v>-0.01252906083579133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.0362656257894164</v>
+      </c>
+      <c r="H7">
+        <v>0.09842948835965207</v>
+      </c>
+      <c r="I7">
+        <v>-0.02852248562245856</v>
+      </c>
+      <c r="J7">
+        <v>-0.001876043082021406</v>
+      </c>
+      <c r="K7">
+        <v>0.03452594495197014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.007687235995815445</v>
+        <v>0.0007782291611014237</v>
       </c>
       <c r="C8">
-        <v>-0.07643503001697095</v>
+        <v>-0.0630551215567192</v>
       </c>
       <c r="D8">
-        <v>0.02505047541346577</v>
+        <v>-0.04090926592180338</v>
       </c>
       <c r="E8">
-        <v>-0.07619775375721442</v>
+        <v>-0.006589706025953655</v>
       </c>
       <c r="F8">
-        <v>-0.04088151950741188</v>
+        <v>-0.06020690483543122</v>
       </c>
       <c r="G8">
-        <v>0.02948550796113932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01945632642180626</v>
+      </c>
+      <c r="H8">
+        <v>0.06172445518188724</v>
+      </c>
+      <c r="I8">
+        <v>-0.02024557974743202</v>
+      </c>
+      <c r="J8">
+        <v>-0.000824580708258806</v>
+      </c>
+      <c r="K8">
+        <v>-0.009698609620601754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.009400315696053478</v>
+        <v>0.01406338231428434</v>
       </c>
       <c r="C9">
-        <v>-0.1220928260646808</v>
+        <v>-0.1031768892740396</v>
       </c>
       <c r="D9">
-        <v>0.03081563001628228</v>
+        <v>-0.04278931333289036</v>
       </c>
       <c r="E9">
-        <v>-0.02749297796016154</v>
+        <v>0.004722812996323543</v>
       </c>
       <c r="F9">
-        <v>-0.03635540120432476</v>
+        <v>-0.03048253052564275</v>
       </c>
       <c r="G9">
-        <v>-0.0287619518672538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.003211556539579369</v>
+      </c>
+      <c r="H9">
+        <v>0.08962949182039594</v>
+      </c>
+      <c r="I9">
+        <v>-0.06923425782549017</v>
+      </c>
+      <c r="J9">
+        <v>-0.02211751248878929</v>
+      </c>
+      <c r="K9">
+        <v>0.07262808087597614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.274904517931379</v>
+        <v>0.2467031530432761</v>
       </c>
       <c r="C10">
-        <v>0.08606991986882517</v>
+        <v>0.09115693451329927</v>
       </c>
       <c r="D10">
-        <v>-0.02188209139585168</v>
+        <v>0.003638784899088375</v>
       </c>
       <c r="E10">
-        <v>0.03661972288700457</v>
+        <v>-0.01202331917103096</v>
       </c>
       <c r="F10">
-        <v>0.001113300178271311</v>
+        <v>0.001930303926350897</v>
       </c>
       <c r="G10">
-        <v>-0.02718773091951032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02719651272425088</v>
+      </c>
+      <c r="H10">
+        <v>0.03584877828758588</v>
+      </c>
+      <c r="I10">
+        <v>0.01520671695180485</v>
+      </c>
+      <c r="J10">
+        <v>-0.1803936997773987</v>
+      </c>
+      <c r="K10">
+        <v>-0.1000050541637311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.006542405408315983</v>
+        <v>0.01686584901772627</v>
       </c>
       <c r="C11">
-        <v>-0.06986755970229658</v>
+        <v>-0.08330714041656226</v>
       </c>
       <c r="D11">
-        <v>0.02494397292628157</v>
+        <v>-0.03775571565317235</v>
       </c>
       <c r="E11">
-        <v>0.0184308709121641</v>
+        <v>0.00334505059427224</v>
       </c>
       <c r="F11">
-        <v>-0.01624161450833485</v>
+        <v>0.01574756737760444</v>
       </c>
       <c r="G11">
-        <v>-0.03934446968476243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.008349288470273769</v>
+      </c>
+      <c r="H11">
+        <v>0.02899734797124634</v>
+      </c>
+      <c r="I11">
+        <v>-0.01973912744396114</v>
+      </c>
+      <c r="J11">
+        <v>0.02052143819158261</v>
+      </c>
+      <c r="K11">
+        <v>-0.01276069174263579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.005613093340837452</v>
+        <v>0.01638632392242621</v>
       </c>
       <c r="C12">
-        <v>-0.04850696120727144</v>
+        <v>-0.05545835487106297</v>
       </c>
       <c r="D12">
-        <v>0.03048446446862491</v>
+        <v>-0.02240444018990421</v>
       </c>
       <c r="E12">
-        <v>0.007409230586871133</v>
+        <v>-0.01866488795508814</v>
       </c>
       <c r="F12">
-        <v>0.009016541933030213</v>
+        <v>0.01395367524731806</v>
       </c>
       <c r="G12">
-        <v>-0.05648335406349013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.02605110962502042</v>
+      </c>
+      <c r="H12">
+        <v>0.02600588769221488</v>
+      </c>
+      <c r="I12">
+        <v>-0.01573739061047161</v>
+      </c>
+      <c r="J12">
+        <v>0.01350610913612942</v>
+      </c>
+      <c r="K12">
+        <v>-0.0004323891069898121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.01591513211934202</v>
+        <v>0.007069553901455491</v>
       </c>
       <c r="C13">
-        <v>-0.127492886159436</v>
+        <v>-0.122376916997096</v>
       </c>
       <c r="D13">
-        <v>0.04879840509494735</v>
+        <v>-0.04004605986239846</v>
       </c>
       <c r="E13">
-        <v>-0.05681321660645976</v>
+        <v>-0.1186114854948714</v>
       </c>
       <c r="F13">
-        <v>0.02354454756809082</v>
+        <v>-0.1100035165790532</v>
       </c>
       <c r="G13">
-        <v>-0.1702280906735928</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1167552245628793</v>
+      </c>
+      <c r="H13">
+        <v>0.133277771533479</v>
+      </c>
+      <c r="I13">
+        <v>0.1819934172019009</v>
+      </c>
+      <c r="J13">
+        <v>-0.1310570185416949</v>
+      </c>
+      <c r="K13">
+        <v>-0.2205448711227778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.008775890235414559</v>
+        <v>0.01961027831300533</v>
       </c>
       <c r="C14">
-        <v>-0.07006323819708155</v>
+        <v>-0.0751616701637058</v>
       </c>
       <c r="D14">
-        <v>0.02647120278713937</v>
+        <v>-0.04916179036420519</v>
       </c>
       <c r="E14">
-        <v>-0.03851004734303376</v>
+        <v>-0.04813808924779062</v>
       </c>
       <c r="F14">
-        <v>0.003797325986827074</v>
+        <v>-0.0001649095457268463</v>
       </c>
       <c r="G14">
-        <v>-0.05267539123899157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.07469282410694349</v>
+      </c>
+      <c r="H14">
+        <v>0.2084696525850074</v>
+      </c>
+      <c r="I14">
+        <v>0.004216988351587999</v>
+      </c>
+      <c r="J14">
+        <v>0.04148827112537577</v>
+      </c>
+      <c r="K14">
+        <v>-0.1152488270025858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.008438093315042364</v>
+        <v>0.004206121852695504</v>
       </c>
       <c r="C15">
-        <v>-0.1017149244999532</v>
+        <v>-0.08388708804788249</v>
       </c>
       <c r="D15">
-        <v>0.0372103618636365</v>
+        <v>-0.03492079305790861</v>
       </c>
       <c r="E15">
-        <v>-0.04798417842078003</v>
+        <v>0.003000828054006665</v>
       </c>
       <c r="F15">
-        <v>-0.03470401372395786</v>
+        <v>-0.02216684014584767</v>
       </c>
       <c r="G15">
-        <v>-0.03742150760439865</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.02615511318635895</v>
+      </c>
+      <c r="H15">
+        <v>0.09595231999578983</v>
+      </c>
+      <c r="I15">
+        <v>-0.02745705594506682</v>
+      </c>
+      <c r="J15">
+        <v>0.01699870428887383</v>
+      </c>
+      <c r="K15">
+        <v>-0.070030117760175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.009658607938499498</v>
+        <v>0.01568953008790739</v>
       </c>
       <c r="C16">
-        <v>-0.05962834750922674</v>
+        <v>-0.06271393746560382</v>
       </c>
       <c r="D16">
-        <v>0.01783219617844947</v>
+        <v>-0.02648093610085412</v>
       </c>
       <c r="E16">
-        <v>0.0114307002430925</v>
+        <v>0.0004549830461199017</v>
       </c>
       <c r="F16">
-        <v>0.002522368098713292</v>
+        <v>0.01026296322091338</v>
       </c>
       <c r="G16">
-        <v>-0.02905286488696043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.00855540507171542</v>
+      </c>
+      <c r="H16">
+        <v>0.02164182558431933</v>
+      </c>
+      <c r="I16">
+        <v>-0.0178265193156628</v>
+      </c>
+      <c r="J16">
+        <v>0.01497433194776945</v>
+      </c>
+      <c r="K16">
+        <v>0.003549755735433649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01335704306237189</v>
+        <v>0.0153404049034342</v>
       </c>
       <c r="C20">
-        <v>-0.08996715943248411</v>
+        <v>-0.08687493236844684</v>
       </c>
       <c r="D20">
-        <v>0.01904503546031934</v>
+        <v>-0.02473361964952917</v>
       </c>
       <c r="E20">
-        <v>0.01489625744807342</v>
+        <v>0.02179705452577757</v>
       </c>
       <c r="F20">
-        <v>-0.04483668227295622</v>
+        <v>0.01015746718429204</v>
       </c>
       <c r="G20">
-        <v>-0.08892747554326558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.03731724562414723</v>
+      </c>
+      <c r="H20">
+        <v>0.0731770810916348</v>
+      </c>
+      <c r="I20">
+        <v>-0.0228331013770873</v>
+      </c>
+      <c r="J20">
+        <v>0.01074938328591475</v>
+      </c>
+      <c r="K20">
+        <v>0.009017452458161017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.003947798563375152</v>
+        <v>0.01337283719086615</v>
       </c>
       <c r="C21">
-        <v>-0.09817890216804855</v>
+        <v>-0.07354862603097136</v>
       </c>
       <c r="D21">
-        <v>-0.03794187118579428</v>
+        <v>-0.0183423294164458</v>
       </c>
       <c r="E21">
-        <v>-0.05543801095409082</v>
+        <v>-0.0932478771770682</v>
       </c>
       <c r="F21">
-        <v>0.02729232073886862</v>
+        <v>-0.02010912971768247</v>
       </c>
       <c r="G21">
-        <v>-0.04660313586585368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03155613502705579</v>
+      </c>
+      <c r="H21">
+        <v>0.1411276404758094</v>
+      </c>
+      <c r="I21">
+        <v>0.04588309948035773</v>
+      </c>
+      <c r="J21">
+        <v>-0.004686327706770836</v>
+      </c>
+      <c r="K21">
+        <v>-0.03814101122898537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.03961215889154853</v>
+        <v>0.008252966120575802</v>
       </c>
       <c r="C22">
-        <v>-0.2204379028296879</v>
+        <v>-0.1805264336284809</v>
       </c>
       <c r="D22">
-        <v>-0.08451498389771404</v>
+        <v>-0.01665483909317197</v>
       </c>
       <c r="E22">
-        <v>-0.2598620541967305</v>
+        <v>0.1107153818271187</v>
       </c>
       <c r="F22">
-        <v>-0.2267912847109085</v>
+        <v>-0.5218821884656548</v>
       </c>
       <c r="G22">
-        <v>0.1308572393456437</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.003587046879474099</v>
+      </c>
+      <c r="H22">
+        <v>-0.3043798385019257</v>
+      </c>
+      <c r="I22">
+        <v>0.05541466371878853</v>
+      </c>
+      <c r="J22">
+        <v>0.02184652053085718</v>
+      </c>
+      <c r="K22">
+        <v>-0.1853214749231633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.03907755047718531</v>
+        <v>0.01329590926458207</v>
       </c>
       <c r="C23">
-        <v>-0.2209304842312984</v>
+        <v>-0.1842752940009116</v>
       </c>
       <c r="D23">
-        <v>-0.08428362895059981</v>
+        <v>-0.01586372306303811</v>
       </c>
       <c r="E23">
-        <v>-0.2562870665572977</v>
+        <v>0.106209125162305</v>
       </c>
       <c r="F23">
-        <v>-0.22404472750598</v>
+        <v>-0.5041181090905815</v>
       </c>
       <c r="G23">
-        <v>0.1303886783298339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.0007235679791378209</v>
+      </c>
+      <c r="H23">
+        <v>-0.2828341041734549</v>
+      </c>
+      <c r="I23">
+        <v>0.0465745429350044</v>
+      </c>
+      <c r="J23">
+        <v>0.02388810523206964</v>
+      </c>
+      <c r="K23">
+        <v>-0.1725129821080098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.004250831875438173</v>
+        <v>0.01674941008697229</v>
       </c>
       <c r="C24">
-        <v>-0.05714922037236754</v>
+        <v>-0.06660261500221487</v>
       </c>
       <c r="D24">
-        <v>0.03776340340591652</v>
+        <v>-0.0386501628909235</v>
       </c>
       <c r="E24">
-        <v>0.01077748843967569</v>
+        <v>0.002876837773660745</v>
       </c>
       <c r="F24">
-        <v>-0.01197760265150609</v>
+        <v>0.01040150324741636</v>
       </c>
       <c r="G24">
-        <v>-0.05338480245492581</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02414443214871062</v>
+      </c>
+      <c r="H24">
+        <v>0.03886472446557871</v>
+      </c>
+      <c r="I24">
+        <v>-0.02286050896034026</v>
+      </c>
+      <c r="J24">
+        <v>0.01459509736873361</v>
+      </c>
+      <c r="K24">
+        <v>-0.004980686054537001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.00697124225522228</v>
+        <v>0.02110019653720363</v>
       </c>
       <c r="C25">
-        <v>-0.06640802721917559</v>
+        <v>-0.07034808691949551</v>
       </c>
       <c r="D25">
-        <v>0.01794621077030114</v>
+        <v>-0.02908826606639547</v>
       </c>
       <c r="E25">
-        <v>0.01695893673509934</v>
+        <v>0.004595392487329212</v>
       </c>
       <c r="F25">
-        <v>-0.008557977681284523</v>
+        <v>0.009240308974834419</v>
       </c>
       <c r="G25">
-        <v>-0.05128322724712243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.0184161156016655</v>
+      </c>
+      <c r="H25">
+        <v>0.03348082375755109</v>
+      </c>
+      <c r="I25">
+        <v>-0.02118672668256459</v>
+      </c>
+      <c r="J25">
+        <v>0.003003943902308827</v>
+      </c>
+      <c r="K25">
+        <v>-0.01699933060157963</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.005429805399679691</v>
+        <v>0.02439365107881664</v>
       </c>
       <c r="C26">
-        <v>-0.06098287200301471</v>
+        <v>-0.05851800788210153</v>
       </c>
       <c r="D26">
-        <v>0.05485386034999952</v>
+        <v>-0.06427824025065876</v>
       </c>
       <c r="E26">
-        <v>-0.01585328087492335</v>
+        <v>0.001642245835470227</v>
       </c>
       <c r="F26">
-        <v>0.008625697694090785</v>
+        <v>0.01771632457679164</v>
       </c>
       <c r="G26">
-        <v>-0.02662941790850621</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.003924304851734155</v>
+      </c>
+      <c r="H26">
+        <v>0.09611663380729206</v>
+      </c>
+      <c r="I26">
+        <v>-0.0737571925852419</v>
+      </c>
+      <c r="J26">
+        <v>0.0151228151572318</v>
+      </c>
+      <c r="K26">
+        <v>0.114238519226477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3736113040948468</v>
+        <v>0.3159859429861862</v>
       </c>
       <c r="C28">
-        <v>0.0999221955265106</v>
+        <v>0.1079024705220055</v>
       </c>
       <c r="D28">
-        <v>-0.02074933733766981</v>
+        <v>0.0304172585449304</v>
       </c>
       <c r="E28">
-        <v>0.07658653158039845</v>
+        <v>-0.01107166582719851</v>
       </c>
       <c r="F28">
-        <v>0.09034326784034472</v>
+        <v>-0.04305026328986304</v>
       </c>
       <c r="G28">
-        <v>0.03616456624370704</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1245156260695959</v>
+      </c>
+      <c r="H28">
+        <v>0.05176038238380125</v>
+      </c>
+      <c r="I28">
+        <v>0.09155647997114787</v>
+      </c>
+      <c r="J28">
+        <v>-0.1979398640115592</v>
+      </c>
+      <c r="K28">
+        <v>0.01958649693073864</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.008200019352893852</v>
+        <v>0.01398300079351207</v>
       </c>
       <c r="C29">
-        <v>-0.07362671689722876</v>
+        <v>-0.08146391947341218</v>
       </c>
       <c r="D29">
-        <v>0.04009563837960883</v>
+        <v>-0.05439273901813702</v>
       </c>
       <c r="E29">
-        <v>-0.03523443861461338</v>
+        <v>-0.05180451446155431</v>
       </c>
       <c r="F29">
-        <v>-0.00357228154499151</v>
+        <v>-0.008073498302784785</v>
       </c>
       <c r="G29">
-        <v>-0.08958841977443505</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1145842338223587</v>
+      </c>
+      <c r="H29">
+        <v>0.2948983900342557</v>
+      </c>
+      <c r="I29">
+        <v>0.01014808984994802</v>
+      </c>
+      <c r="J29">
+        <v>0.02822978770295857</v>
+      </c>
+      <c r="K29">
+        <v>-0.1815241060361946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.02943163009456144</v>
+        <v>0.03181536340225246</v>
       </c>
       <c r="C30">
-        <v>-0.1782655868005512</v>
+        <v>-0.1457991100364089</v>
       </c>
       <c r="D30">
-        <v>0.05577206268355864</v>
+        <v>-0.05599328284859068</v>
       </c>
       <c r="E30">
-        <v>-0.03191489594434624</v>
+        <v>0.01541632034208717</v>
       </c>
       <c r="F30">
-        <v>-0.05564665018794767</v>
+        <v>-0.06360288161668504</v>
       </c>
       <c r="G30">
-        <v>-0.01185540344594852</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.009495147116514672</v>
+      </c>
+      <c r="H30">
+        <v>0.03418288099376196</v>
+      </c>
+      <c r="I30">
+        <v>-0.04227131112856965</v>
+      </c>
+      <c r="J30">
+        <v>0.02455539172382518</v>
+      </c>
+      <c r="K30">
+        <v>0.08502049453732217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.00281964129820756</v>
+        <v>0.01393296741568136</v>
       </c>
       <c r="C31">
-        <v>-0.05741219237534207</v>
+        <v>-0.08023245754626226</v>
       </c>
       <c r="D31">
-        <v>0.03722802755075891</v>
+        <v>-0.04147974242443104</v>
       </c>
       <c r="E31">
-        <v>0.01406355907825894</v>
+        <v>-0.00366303648324749</v>
       </c>
       <c r="F31">
-        <v>0.01194170835969002</v>
+        <v>0.00220192033691784</v>
       </c>
       <c r="G31">
-        <v>-0.01181374481308691</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02785708298875</v>
+      </c>
+      <c r="H31">
+        <v>0.03277136931623884</v>
+      </c>
+      <c r="I31">
+        <v>-0.02091556261261614</v>
+      </c>
+      <c r="J31">
+        <v>0.008495245226292834</v>
+      </c>
+      <c r="K31">
+        <v>-0.02843027504123269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.02061349624909526</v>
+        <v>0.02198889398739621</v>
       </c>
       <c r="C32">
-        <v>-0.08144514090618744</v>
+        <v>-0.05249397849250627</v>
       </c>
       <c r="D32">
-        <v>-0.008161312767432092</v>
+        <v>-0.01791944995289746</v>
       </c>
       <c r="E32">
-        <v>-0.1603115637214831</v>
+        <v>-0.05649351948928404</v>
       </c>
       <c r="F32">
-        <v>-0.03394626628005832</v>
+        <v>-0.1035322809645676</v>
       </c>
       <c r="G32">
-        <v>-0.05347293225043556</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.06508637976107513</v>
+      </c>
+      <c r="H32">
+        <v>0.1683499675963014</v>
+      </c>
+      <c r="I32">
+        <v>0.1432521111490234</v>
+      </c>
+      <c r="J32">
+        <v>-0.2109989377415455</v>
+      </c>
+      <c r="K32">
+        <v>-0.02290745220988875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.01499051713402573</v>
+        <v>0.01755149614626476</v>
       </c>
       <c r="C33">
-        <v>-0.09002294131438587</v>
+        <v>-0.1064745277205194</v>
       </c>
       <c r="D33">
-        <v>0.06102195625706405</v>
+        <v>-0.04837074439079921</v>
       </c>
       <c r="E33">
-        <v>-0.01345342516919785</v>
+        <v>0.005338768603682095</v>
       </c>
       <c r="F33">
-        <v>-0.0007878673427369976</v>
+        <v>-0.01098957199183709</v>
       </c>
       <c r="G33">
-        <v>-0.02888288964477723</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.0238211954153961</v>
+      </c>
+      <c r="H33">
+        <v>0.05462600849030714</v>
+      </c>
+      <c r="I33">
+        <v>-0.02367850735942601</v>
+      </c>
+      <c r="J33">
+        <v>-0.0252608053834584</v>
+      </c>
+      <c r="K33">
+        <v>-0.0001130610587156076</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.002921284796517514</v>
+        <v>0.01643430962880451</v>
       </c>
       <c r="C34">
-        <v>-0.04999869673608228</v>
+        <v>-0.04937548016432097</v>
       </c>
       <c r="D34">
-        <v>0.02229992160744557</v>
+        <v>-0.02017581273645755</v>
       </c>
       <c r="E34">
-        <v>-0.004064081534032863</v>
+        <v>-0.007253966053664803</v>
       </c>
       <c r="F34">
-        <v>0.00946631728567323</v>
+        <v>0.01151432416413962</v>
       </c>
       <c r="G34">
-        <v>-0.03276392368905255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01532934784248168</v>
+      </c>
+      <c r="H34">
+        <v>0.007040561735017338</v>
+      </c>
+      <c r="I34">
+        <v>-0.02262784647040602</v>
+      </c>
+      <c r="J34">
+        <v>0.008923120818264524</v>
+      </c>
+      <c r="K34">
+        <v>-0.005284525527884771</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.003320009235506569</v>
+        <v>0.01037123789499744</v>
       </c>
       <c r="C35">
-        <v>-0.0231704504901522</v>
+        <v>-0.04309680895750008</v>
       </c>
       <c r="D35">
-        <v>0.006345913794065038</v>
+        <v>-0.02150200329789515</v>
       </c>
       <c r="E35">
-        <v>-0.009489111735875072</v>
+        <v>-0.01236810282804135</v>
       </c>
       <c r="F35">
-        <v>-0.004386207016379842</v>
+        <v>-0.005200538345693492</v>
       </c>
       <c r="G35">
-        <v>-0.02781355694453306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.04493141877033842</v>
+      </c>
+      <c r="H35">
+        <v>0.1517545561623089</v>
+      </c>
+      <c r="I35">
+        <v>-0.01682795647464525</v>
+      </c>
+      <c r="J35">
+        <v>-0.005998150102870229</v>
+      </c>
+      <c r="K35">
+        <v>-0.15608417396481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.006082508833376753</v>
+        <v>0.01686038310617292</v>
       </c>
       <c r="C36">
-        <v>-0.05291742923759529</v>
+        <v>-0.04968664918106168</v>
       </c>
       <c r="D36">
-        <v>0.04833471581440699</v>
+        <v>-0.04846459331610554</v>
       </c>
       <c r="E36">
-        <v>-0.005283093488597676</v>
+        <v>-0.0019364660146269</v>
       </c>
       <c r="F36">
-        <v>-0.0008752840106979446</v>
+        <v>-0.00329354988334592</v>
       </c>
       <c r="G36">
-        <v>-0.01481396871401755</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.004108450025887422</v>
+      </c>
+      <c r="H36">
+        <v>0.07378744811300886</v>
+      </c>
+      <c r="I36">
+        <v>-0.01811687058455858</v>
+      </c>
+      <c r="J36">
+        <v>0.007386557779751319</v>
+      </c>
+      <c r="K36">
+        <v>0.04041978136674693</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.03120289873892945</v>
+        <v>0.01264661093989469</v>
       </c>
       <c r="C38">
-        <v>-0.05365479726492334</v>
+        <v>-0.06189834738865121</v>
       </c>
       <c r="D38">
-        <v>0.04343777200645704</v>
+        <v>-0.042430691267861</v>
       </c>
       <c r="E38">
-        <v>0.005379533394493724</v>
+        <v>0.0312283676850444</v>
       </c>
       <c r="F38">
-        <v>-0.01737541940653128</v>
+        <v>-0.01223330212890599</v>
       </c>
       <c r="G38">
-        <v>-0.00669471914041204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.003142550205152141</v>
+      </c>
+      <c r="H38">
+        <v>0.08426301428918531</v>
+      </c>
+      <c r="I38">
+        <v>0.03037924787301225</v>
+      </c>
+      <c r="J38">
+        <v>-0.05484107269795354</v>
+      </c>
+      <c r="K38">
+        <v>-0.03140776703406312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.0009512474165785239</v>
+        <v>0.017478521790139</v>
       </c>
       <c r="C39">
-        <v>-0.1288083584006386</v>
+        <v>-0.1272199874942</v>
       </c>
       <c r="D39">
-        <v>0.03884991352755749</v>
+        <v>-0.05414166679078888</v>
       </c>
       <c r="E39">
-        <v>-0.007428434485904217</v>
+        <v>-0.01207768748626839</v>
       </c>
       <c r="F39">
-        <v>-0.02717596055186083</v>
+        <v>0.0002314345329130126</v>
       </c>
       <c r="G39">
-        <v>-0.07480642238745772</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.03960369318734712</v>
+      </c>
+      <c r="H39">
+        <v>0.05232904625859489</v>
+      </c>
+      <c r="I39">
+        <v>-0.01865696901415708</v>
+      </c>
+      <c r="J39">
+        <v>0.07410054344692256</v>
+      </c>
+      <c r="K39">
+        <v>0.03254973972905216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.00989527506024449</v>
+        <v>0.01281188393046151</v>
       </c>
       <c r="C40">
-        <v>-0.02859824000597493</v>
+        <v>-0.05688375732265097</v>
       </c>
       <c r="D40">
-        <v>0.0318679264933413</v>
+        <v>-0.03791808789925935</v>
       </c>
       <c r="E40">
-        <v>-0.1265703139223088</v>
+        <v>-0.03213607974531982</v>
       </c>
       <c r="F40">
-        <v>-0.0720794678916562</v>
+        <v>-0.0429697917572023</v>
       </c>
       <c r="G40">
-        <v>-0.07338210424648456</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1511853319355933</v>
+      </c>
+      <c r="H40">
+        <v>0.03027420424607757</v>
+      </c>
+      <c r="I40">
+        <v>-0.04386780350127025</v>
+      </c>
+      <c r="J40">
+        <v>-0.02463255764485855</v>
+      </c>
+      <c r="K40">
+        <v>-0.2900303308714355</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01208028139578764</v>
+        <v>0.02197221975423274</v>
       </c>
       <c r="C41">
-        <v>-0.02231486228607173</v>
+        <v>-0.04755940323604099</v>
       </c>
       <c r="D41">
-        <v>0.005508613314082092</v>
+        <v>-0.01725155566804862</v>
       </c>
       <c r="E41">
-        <v>0.01658163513717969</v>
+        <v>0.0002919906985715642</v>
       </c>
       <c r="F41">
-        <v>0.03224679377384244</v>
+        <v>0.02491558421780362</v>
       </c>
       <c r="G41">
-        <v>0.03559322794962592</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.008330066436393724</v>
+      </c>
+      <c r="H41">
+        <v>0.02229924777532189</v>
+      </c>
+      <c r="I41">
+        <v>0.009933955379033048</v>
+      </c>
+      <c r="J41">
+        <v>-0.02433187743418667</v>
+      </c>
+      <c r="K41">
+        <v>-0.04941785626456359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.003288490356754704</v>
+        <v>0.01838645884480827</v>
       </c>
       <c r="C43">
-        <v>-0.02257733934191686</v>
+        <v>-0.04399074579635906</v>
       </c>
       <c r="D43">
-        <v>0.01117126064549161</v>
+        <v>-0.02997065279418618</v>
       </c>
       <c r="E43">
-        <v>0.007168644791663308</v>
+        <v>0.008667862601278886</v>
       </c>
       <c r="F43">
-        <v>-0.002038801967967596</v>
+        <v>0.01188401485468965</v>
       </c>
       <c r="G43">
-        <v>0.006123162804804975</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.001370019086990286</v>
+      </c>
+      <c r="H43">
+        <v>0.04037904940683618</v>
+      </c>
+      <c r="I43">
+        <v>0.003633085915909572</v>
+      </c>
+      <c r="J43">
+        <v>0.003252322708250787</v>
+      </c>
+      <c r="K43">
+        <v>-0.03729602775882962</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.02477621548224049</v>
+        <v>0.01454453644765305</v>
       </c>
       <c r="C44">
-        <v>-0.09744731983182724</v>
+        <v>-0.09803895772881775</v>
       </c>
       <c r="D44">
-        <v>0.02403730100570078</v>
+        <v>-0.05762859918746345</v>
       </c>
       <c r="E44">
-        <v>-0.03980841394146405</v>
+        <v>0.02904345783470568</v>
       </c>
       <c r="F44">
-        <v>-0.05857300337956566</v>
+        <v>-0.06402286616632175</v>
       </c>
       <c r="G44">
-        <v>-0.03988626363295455</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04352386447021917</v>
+      </c>
+      <c r="H44">
+        <v>0.05296748171307043</v>
+      </c>
+      <c r="I44">
+        <v>-0.01791824930498381</v>
+      </c>
+      <c r="J44">
+        <v>0.04302512271884928</v>
+      </c>
+      <c r="K44">
+        <v>0.08224982154824342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.006157275980743948</v>
+        <v>0.004712422692643214</v>
       </c>
       <c r="C46">
-        <v>-0.06694090343917708</v>
+        <v>-0.06410694011670637</v>
       </c>
       <c r="D46">
-        <v>0.03963796739275124</v>
+        <v>-0.03038870990512421</v>
       </c>
       <c r="E46">
-        <v>-0.0264273909653455</v>
+        <v>-0.008946581838114909</v>
       </c>
       <c r="F46">
-        <v>-0.01079435300389703</v>
+        <v>0.009636989318325162</v>
       </c>
       <c r="G46">
-        <v>-0.05545459482781867</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.03618508579396827</v>
+      </c>
+      <c r="H46">
+        <v>0.1031930128101585</v>
+      </c>
+      <c r="I46">
+        <v>0.01622429272849825</v>
+      </c>
+      <c r="J46">
+        <v>0.01502163584445383</v>
+      </c>
+      <c r="K46">
+        <v>-0.07567261959008333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.01100236180209497</v>
+        <v>0.02454958536007128</v>
       </c>
       <c r="C47">
-        <v>-0.08188534425471003</v>
+        <v>-0.08277205421916144</v>
       </c>
       <c r="D47">
-        <v>0.04187617001395103</v>
+        <v>-0.04528917922866423</v>
       </c>
       <c r="E47">
-        <v>0.01737345978354955</v>
+        <v>-0.00997836518281461</v>
       </c>
       <c r="F47">
-        <v>0.04708230666387837</v>
+        <v>0.01845232587972751</v>
       </c>
       <c r="G47">
-        <v>-0.04420362271567607</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.006139510125617311</v>
+      </c>
+      <c r="H47">
+        <v>0.06929446269581704</v>
+      </c>
+      <c r="I47">
+        <v>0.008985783205696648</v>
+      </c>
+      <c r="J47">
+        <v>-0.02194278032109475</v>
+      </c>
+      <c r="K47">
+        <v>-0.03261939990394878</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.01139998711049631</v>
+        <v>0.02211887870933556</v>
       </c>
       <c r="C48">
-        <v>-0.05329390349936076</v>
+        <v>-0.05094933067372753</v>
       </c>
       <c r="D48">
-        <v>0.05709067864705875</v>
+        <v>-0.05488315280518179</v>
       </c>
       <c r="E48">
-        <v>-0.003206584314355161</v>
+        <v>0.003723136790539409</v>
       </c>
       <c r="F48">
-        <v>-0.005589530147479589</v>
+        <v>0.005211419710376552</v>
       </c>
       <c r="G48">
-        <v>-0.01389488442574849</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.005742320457172254</v>
+      </c>
+      <c r="H48">
+        <v>0.09492973738097973</v>
+      </c>
+      <c r="I48">
+        <v>-0.04685673146557714</v>
+      </c>
+      <c r="J48">
+        <v>0.01209560343393858</v>
+      </c>
+      <c r="K48">
+        <v>0.09313489862304701</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.007807804723415135</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.02653126501083142</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.001145402538381333</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.008461919685678014</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.03391375401496035</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.03449670109607701</v>
+      </c>
+      <c r="H49">
+        <v>-0.01989868566692925</v>
+      </c>
+      <c r="I49">
+        <v>-0.06236876783048307</v>
+      </c>
+      <c r="J49">
+        <v>0.02499130436905232</v>
+      </c>
+      <c r="K49">
+        <v>0.0242265375741651</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.000383168031776935</v>
+        <v>0.01447598781081528</v>
       </c>
       <c r="C50">
-        <v>-0.06408541802370894</v>
+        <v>-0.07824815916440596</v>
       </c>
       <c r="D50">
-        <v>0.0282390942248272</v>
+        <v>-0.02994576183260623</v>
       </c>
       <c r="E50">
-        <v>-0.0001143322629848815</v>
+        <v>0.005764336099312936</v>
       </c>
       <c r="F50">
-        <v>-0.006298251009328143</v>
+        <v>-0.004817149285530075</v>
       </c>
       <c r="G50">
-        <v>-0.0146234472025897</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.009793741544067895</v>
+      </c>
+      <c r="H50">
+        <v>0.05483793997149352</v>
+      </c>
+      <c r="I50">
+        <v>0.001249223631860621</v>
+      </c>
+      <c r="J50">
+        <v>-0.0432838527757843</v>
+      </c>
+      <c r="K50">
+        <v>-0.01949014007153908</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.003398753469976752</v>
+        <v>-0.006249811932517302</v>
       </c>
       <c r="C51">
-        <v>-0.07690475733529514</v>
+        <v>-0.03635671582358377</v>
       </c>
       <c r="D51">
-        <v>0.003283776867259581</v>
+        <v>-0.02244645701994121</v>
       </c>
       <c r="E51">
-        <v>-0.04950688328167114</v>
+        <v>-0.01151600435212124</v>
       </c>
       <c r="F51">
-        <v>-0.06188623335340376</v>
+        <v>-0.03179526128413499</v>
       </c>
       <c r="G51">
-        <v>-0.01192482618088629</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02605548319202769</v>
+      </c>
+      <c r="H51">
+        <v>0.09678337114453764</v>
+      </c>
+      <c r="I51">
+        <v>-0.04361109583691288</v>
+      </c>
+      <c r="J51">
+        <v>-0.007653398170464037</v>
+      </c>
+      <c r="K51">
+        <v>0.09701961434203468</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.04312609051718674</v>
+        <v>0.05866131018783599</v>
       </c>
       <c r="C53">
-        <v>-0.1372515573813176</v>
+        <v>-0.1319814785692796</v>
       </c>
       <c r="D53">
-        <v>0.06223709980542159</v>
+        <v>-0.05592632640404723</v>
       </c>
       <c r="E53">
-        <v>0.1253115138229877</v>
+        <v>-0.01853994470055877</v>
       </c>
       <c r="F53">
-        <v>0.0696394360941818</v>
+        <v>0.0736734655573381</v>
       </c>
       <c r="G53">
-        <v>0.02973434240664332</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.08300248785795364</v>
+      </c>
+      <c r="H53">
+        <v>-0.03284801186328851</v>
+      </c>
+      <c r="I53">
+        <v>0.002147642982164423</v>
+      </c>
+      <c r="J53">
+        <v>-0.0418603891540799</v>
+      </c>
+      <c r="K53">
+        <v>-0.01057803197775379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.00541512685967483</v>
+        <v>0.01914832083408503</v>
       </c>
       <c r="C54">
-        <v>-0.06601935268078721</v>
+        <v>-0.07538069850589967</v>
       </c>
       <c r="D54">
-        <v>0.009391065303135141</v>
+        <v>-0.01304371316432314</v>
       </c>
       <c r="E54">
-        <v>0.02532946076780532</v>
+        <v>-0.00929142629355191</v>
       </c>
       <c r="F54">
-        <v>-0.003067751566361873</v>
+        <v>0.02172753913972511</v>
       </c>
       <c r="G54">
-        <v>-0.01337114945343476</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.01658664491246915</v>
+      </c>
+      <c r="H54">
+        <v>0.04819644519225947</v>
+      </c>
+      <c r="I54">
+        <v>-0.0302555887437153</v>
+      </c>
+      <c r="J54">
+        <v>0.0201548582943554</v>
+      </c>
+      <c r="K54">
+        <v>-0.001236620755087584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.02594203056215022</v>
+        <v>0.03312594829556771</v>
       </c>
       <c r="C55">
-        <v>-0.08979998201231695</v>
+        <v>-0.08574387606904768</v>
       </c>
       <c r="D55">
-        <v>0.06658091255961761</v>
+        <v>-0.05458982935250459</v>
       </c>
       <c r="E55">
-        <v>0.05303950032181265</v>
+        <v>-0.008149860603526717</v>
       </c>
       <c r="F55">
-        <v>0.0528418075987851</v>
+        <v>0.05432236013514372</v>
       </c>
       <c r="G55">
-        <v>-0.004397774365846607</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03969614428517121</v>
+      </c>
+      <c r="H55">
+        <v>-0.01938178508546416</v>
+      </c>
+      <c r="I55">
+        <v>-0.01126799439344536</v>
+      </c>
+      <c r="J55">
+        <v>0.006160720340943995</v>
+      </c>
+      <c r="K55">
+        <v>-0.002385643512734349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.02697781873560631</v>
+        <v>0.04591810663204322</v>
       </c>
       <c r="C56">
-        <v>-0.1672106978562666</v>
+        <v>-0.1505755513549024</v>
       </c>
       <c r="D56">
-        <v>0.05469069101492927</v>
+        <v>-0.0773656945059656</v>
       </c>
       <c r="E56">
-        <v>0.1121909256828757</v>
+        <v>-0.04717427681752628</v>
       </c>
       <c r="F56">
-        <v>0.1082459170786071</v>
+        <v>0.09821048939323</v>
       </c>
       <c r="G56">
-        <v>0.07116837046211234</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.157773177138527</v>
+      </c>
+      <c r="H56">
+        <v>-0.0475609593569809</v>
+      </c>
+      <c r="I56">
+        <v>-0.02164013867943958</v>
+      </c>
+      <c r="J56">
+        <v>-0.03034332373670377</v>
+      </c>
+      <c r="K56">
+        <v>0.01742986408155412</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.03575818601099166</v>
+        <v>0.02313312813623687</v>
       </c>
       <c r="C58">
-        <v>-0.2894870741792172</v>
+        <v>-0.1844875172398723</v>
       </c>
       <c r="D58">
-        <v>-0.06897405701426675</v>
+        <v>-0.03726107457282355</v>
       </c>
       <c r="E58">
-        <v>-0.1558264546311587</v>
+        <v>0.04802886734463975</v>
       </c>
       <c r="F58">
-        <v>-0.2945042763478617</v>
+        <v>-0.313067283577924</v>
       </c>
       <c r="G58">
-        <v>0.1670694850264191</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.08338177111925282</v>
+      </c>
+      <c r="H58">
+        <v>0.06572340258552758</v>
+      </c>
+      <c r="I58">
+        <v>0.01955795700214059</v>
+      </c>
+      <c r="J58">
+        <v>-0.04904331908663454</v>
+      </c>
+      <c r="K58">
+        <v>0.3693002214959291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2814459653641973</v>
+        <v>0.2889746306576677</v>
       </c>
       <c r="C59">
-        <v>0.006061191604022285</v>
+        <v>0.04585004900958016</v>
       </c>
       <c r="D59">
-        <v>-0.03228666277740401</v>
+        <v>0.004909863272382728</v>
       </c>
       <c r="E59">
-        <v>-0.05510202867795017</v>
+        <v>-0.01495735705580756</v>
       </c>
       <c r="F59">
-        <v>0.04159184022517359</v>
+        <v>-0.04782271807622458</v>
       </c>
       <c r="G59">
-        <v>-0.01007058215646528</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.001069708837580016</v>
+      </c>
+      <c r="H59">
+        <v>-0.02129381502275977</v>
+      </c>
+      <c r="I59">
+        <v>0.01476095385764871</v>
+      </c>
+      <c r="J59">
+        <v>-0.0210757258950977</v>
+      </c>
+      <c r="K59">
+        <v>-0.02760963894910341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1141376070406296</v>
+        <v>0.1472807166143884</v>
       </c>
       <c r="C60">
-        <v>-0.1479499333760789</v>
+        <v>-0.1537463776013244</v>
       </c>
       <c r="D60">
-        <v>0.06984523065701803</v>
+        <v>-0.04677484357660776</v>
       </c>
       <c r="E60">
-        <v>0.03600225723488313</v>
+        <v>-0.04112006249733766</v>
       </c>
       <c r="F60">
-        <v>0.1085737270536484</v>
+        <v>0.117217607712704</v>
       </c>
       <c r="G60">
-        <v>-0.3166564647833778</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.262442950547875</v>
+      </c>
+      <c r="H60">
+        <v>-0.235407159976217</v>
+      </c>
+      <c r="I60">
+        <v>-0.003375195707878777</v>
+      </c>
+      <c r="J60">
+        <v>0.02303961568217027</v>
+      </c>
+      <c r="K60">
+        <v>0.03448689500050743</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.002151552752302414</v>
+        <v>0.02028893730039124</v>
       </c>
       <c r="C61">
-        <v>-0.08042043172589561</v>
+        <v>-0.09544372455766741</v>
       </c>
       <c r="D61">
-        <v>0.04810798428920813</v>
+        <v>-0.05103818674540121</v>
       </c>
       <c r="E61">
-        <v>0.0198647205441479</v>
+        <v>-0.01097703671122051</v>
       </c>
       <c r="F61">
-        <v>0.005539427591114853</v>
+        <v>0.03008533899792478</v>
       </c>
       <c r="G61">
-        <v>-0.07141877262476806</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02480397705547457</v>
+      </c>
+      <c r="H61">
+        <v>0.06037982221409351</v>
+      </c>
+      <c r="I61">
+        <v>-0.03495569644628995</v>
+      </c>
+      <c r="J61">
+        <v>0.02216626388152188</v>
+      </c>
+      <c r="K61">
+        <v>-0.0137561298433761</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002430753463534578</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01326861480469522</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.004088265949241004</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.008203772488096853</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01422708256578645</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.01733995876948486</v>
+      </c>
+      <c r="H62">
+        <v>0.003752207092892495</v>
+      </c>
+      <c r="I62">
+        <v>-0.05512740987030707</v>
+      </c>
+      <c r="J62">
+        <v>-0.03107782755839774</v>
+      </c>
+      <c r="K62">
+        <v>-0.01419817037552679</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.001928231832278071</v>
+        <v>0.02717045640208763</v>
       </c>
       <c r="C63">
-        <v>-0.06318542822433537</v>
+        <v>-0.06772051992372649</v>
       </c>
       <c r="D63">
-        <v>0.04022124268249868</v>
+        <v>-0.05927630261787409</v>
       </c>
       <c r="E63">
-        <v>0.0271485439182875</v>
+        <v>-0.008794448758253545</v>
       </c>
       <c r="F63">
-        <v>-0.004653958949479406</v>
+        <v>0.02037514072649067</v>
       </c>
       <c r="G63">
-        <v>-0.02854141726666527</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.003780588176538109</v>
+      </c>
+      <c r="H63">
+        <v>0.05900225822209632</v>
+      </c>
+      <c r="I63">
+        <v>-0.03796466965830861</v>
+      </c>
+      <c r="J63">
+        <v>0.001066568723676066</v>
+      </c>
+      <c r="K63">
+        <v>-0.01259057847434897</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.00320612583757675</v>
+        <v>0.01613093538749191</v>
       </c>
       <c r="C64">
-        <v>-0.08386506949121247</v>
+        <v>-0.09264149133543005</v>
       </c>
       <c r="D64">
-        <v>0.06638614341642732</v>
+        <v>-0.0325941320336646</v>
       </c>
       <c r="E64">
-        <v>-0.007787979593201085</v>
+        <v>0.02675971140515821</v>
       </c>
       <c r="F64">
-        <v>-0.02070648876324252</v>
+        <v>-0.02608428589961371</v>
       </c>
       <c r="G64">
-        <v>-0.04994407055667852</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06630735754316476</v>
+      </c>
+      <c r="H64">
+        <v>0.05147552466676685</v>
+      </c>
+      <c r="I64">
+        <v>-0.04163299844189054</v>
+      </c>
+      <c r="J64">
+        <v>0.03170545998083476</v>
+      </c>
+      <c r="K64">
+        <v>-0.01852299348452001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.01179322819168789</v>
+        <v>0.03014547129869094</v>
       </c>
       <c r="C65">
-        <v>-0.08229199803024741</v>
+        <v>-0.09619231837086355</v>
       </c>
       <c r="D65">
-        <v>0.02325974345445845</v>
+        <v>-0.01773111294756433</v>
       </c>
       <c r="E65">
-        <v>-0.03456105483092427</v>
+        <v>0.01449743488820025</v>
       </c>
       <c r="F65">
-        <v>-0.03131128617254691</v>
+        <v>0.002571628780062942</v>
       </c>
       <c r="G65">
-        <v>-0.03558551255888101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.09487856967366114</v>
+      </c>
+      <c r="H65">
+        <v>0.0132473027974062</v>
+      </c>
+      <c r="I65">
+        <v>-0.001820861635727863</v>
+      </c>
+      <c r="J65">
+        <v>0.09010330621145826</v>
+      </c>
+      <c r="K65">
+        <v>0.1054830368583319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.002595528526368669</v>
+        <v>0.01479497633945819</v>
       </c>
       <c r="C66">
-        <v>-0.1726870695796285</v>
+        <v>-0.1664421959139359</v>
       </c>
       <c r="D66">
-        <v>0.02068442021883855</v>
+        <v>-0.0449685070949962</v>
       </c>
       <c r="E66">
-        <v>-0.04751237280482292</v>
+        <v>-0.0171099208126984</v>
       </c>
       <c r="F66">
-        <v>-0.0182884076301885</v>
+        <v>-0.01099474621853315</v>
       </c>
       <c r="G66">
-        <v>-0.09535446984419554</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.02434346075945681</v>
+      </c>
+      <c r="H66">
+        <v>0.06455314789214263</v>
+      </c>
+      <c r="I66">
+        <v>-0.03344382602334375</v>
+      </c>
+      <c r="J66">
+        <v>0.04836819721936925</v>
+      </c>
+      <c r="K66">
+        <v>0.02302742338142747</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02872430735848128</v>
+        <v>0.02090617785270931</v>
       </c>
       <c r="C67">
-        <v>-0.03250511964684275</v>
+        <v>-0.05153570706069817</v>
       </c>
       <c r="D67">
-        <v>0.06421928375793197</v>
+        <v>-0.04399591388321519</v>
       </c>
       <c r="E67">
-        <v>0.03584990694574978</v>
+        <v>0.02601689318712152</v>
       </c>
       <c r="F67">
-        <v>-0.0005204533767591172</v>
+        <v>0.02356850853592544</v>
       </c>
       <c r="G67">
-        <v>-0.01720466233541294</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02114552403456484</v>
+      </c>
+      <c r="H67">
+        <v>0.06024628438396597</v>
+      </c>
+      <c r="I67">
+        <v>0.04650393453672892</v>
+      </c>
+      <c r="J67">
+        <v>-0.03839690825087599</v>
+      </c>
+      <c r="K67">
+        <v>-0.04440244943635972</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2907971188120207</v>
+        <v>0.2948325558958498</v>
       </c>
       <c r="C68">
-        <v>0.04062629038773164</v>
+        <v>0.07101238771215504</v>
       </c>
       <c r="D68">
-        <v>-0.02700906940841494</v>
+        <v>0.02518035965411686</v>
       </c>
       <c r="E68">
-        <v>-0.03009076458091992</v>
+        <v>-0.004546359981219533</v>
       </c>
       <c r="F68">
-        <v>-0.01174667367182398</v>
+        <v>-0.03428063332137367</v>
       </c>
       <c r="G68">
-        <v>0.01198850174117997</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02061470555855927</v>
+      </c>
+      <c r="H68">
+        <v>0.02588305201917014</v>
+      </c>
+      <c r="I68">
+        <v>-0.05217135054040908</v>
+      </c>
+      <c r="J68">
+        <v>-0.06292218592884376</v>
+      </c>
+      <c r="K68">
+        <v>-0.005443054513749003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.01427570846871012</v>
+        <v>0.007762880254577552</v>
       </c>
       <c r="C69">
-        <v>-0.05171231883957538</v>
+        <v>-0.04863774427484441</v>
       </c>
       <c r="D69">
-        <v>0.04924471210175092</v>
+        <v>-0.02438920004526297</v>
       </c>
       <c r="E69">
-        <v>0.01586381488697037</v>
+        <v>-0.003808584961685087</v>
       </c>
       <c r="F69">
-        <v>0.002751444611605638</v>
+        <v>0.01070890758775889</v>
       </c>
       <c r="G69">
-        <v>-0.01233995184113896</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02290883015322667</v>
+      </c>
+      <c r="H69">
+        <v>0.0415649295298658</v>
+      </c>
+      <c r="I69">
+        <v>0.001847283044009823</v>
+      </c>
+      <c r="J69">
+        <v>-0.01609198921186187</v>
+      </c>
+      <c r="K69">
+        <v>0.001157628698466318</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2814576610404682</v>
+        <v>0.2765464649940887</v>
       </c>
       <c r="C71">
-        <v>0.05027288640976695</v>
+        <v>0.07554371688655427</v>
       </c>
       <c r="D71">
-        <v>-0.03327518072112642</v>
+        <v>0.0243830309333706</v>
       </c>
       <c r="E71">
-        <v>-0.01563139818308133</v>
+        <v>0.01621024434659832</v>
       </c>
       <c r="F71">
-        <v>-0.02738100998441098</v>
+        <v>-0.05859674172378029</v>
       </c>
       <c r="G71">
-        <v>0.002238326178286253</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02460608569359674</v>
+      </c>
+      <c r="H71">
+        <v>0.0515241854338559</v>
+      </c>
+      <c r="I71">
+        <v>0.009098453871108548</v>
+      </c>
+      <c r="J71">
+        <v>-0.1276540550292551</v>
+      </c>
+      <c r="K71">
+        <v>0.02851256666658862</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.03149374524970664</v>
+        <v>0.05545893553573742</v>
       </c>
       <c r="C72">
-        <v>-0.1587247990268079</v>
+        <v>-0.142020895733824</v>
       </c>
       <c r="D72">
-        <v>0.06598353010279852</v>
+        <v>-0.04428144919846961</v>
       </c>
       <c r="E72">
-        <v>-0.004717398577593737</v>
+        <v>-0.01790455570754368</v>
       </c>
       <c r="F72">
-        <v>-0.08413064532725269</v>
+        <v>0.03857377418425383</v>
       </c>
       <c r="G72">
-        <v>-0.1260442498602002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02031511010709945</v>
+      </c>
+      <c r="H72">
+        <v>0.03200581335760448</v>
+      </c>
+      <c r="I72">
+        <v>-0.04256578019473416</v>
+      </c>
+      <c r="J72">
+        <v>0.1210903598028565</v>
+      </c>
+      <c r="K72">
+        <v>0.07408749103875414</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.07727510367728568</v>
+        <v>0.1514682146137713</v>
       </c>
       <c r="C73">
-        <v>-0.1210669753834134</v>
+        <v>-0.195107133471925</v>
       </c>
       <c r="D73">
-        <v>0.1129675175661584</v>
+        <v>-0.08275154445524179</v>
       </c>
       <c r="E73">
-        <v>0.1301447574884628</v>
+        <v>-0.01614562668777481</v>
       </c>
       <c r="F73">
-        <v>0.1251320190115178</v>
+        <v>0.2382715405369999</v>
       </c>
       <c r="G73">
-        <v>-0.4340122236926909</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3889399919961623</v>
+      </c>
+      <c r="H73">
+        <v>-0.2927134367560643</v>
+      </c>
+      <c r="I73">
+        <v>0.09865509249832533</v>
+      </c>
+      <c r="J73">
+        <v>-0.05586890274393522</v>
+      </c>
+      <c r="K73">
+        <v>0.07663211837483049</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.0194018698647668</v>
+        <v>0.04051538734741932</v>
       </c>
       <c r="C74">
-        <v>-0.09161726588172681</v>
+        <v>-0.1015223579901537</v>
       </c>
       <c r="D74">
-        <v>0.06923617371820584</v>
+        <v>-0.04793751601445849</v>
       </c>
       <c r="E74">
-        <v>0.07032138637591114</v>
+        <v>0.006029184520227767</v>
       </c>
       <c r="F74">
-        <v>0.05820686528425451</v>
+        <v>0.04298392616535632</v>
       </c>
       <c r="G74">
-        <v>0.02149314933017453</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.04372921004997071</v>
+      </c>
+      <c r="H74">
+        <v>-0.007549428743683151</v>
+      </c>
+      <c r="I74">
+        <v>-0.04347881370802886</v>
+      </c>
+      <c r="J74">
+        <v>-0.02265438692253585</v>
+      </c>
+      <c r="K74">
+        <v>0.03202205381354976</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.06040709066016126</v>
+        <v>0.06449981059522922</v>
       </c>
       <c r="C75">
-        <v>-0.146981079614181</v>
+        <v>-0.1668043609451355</v>
       </c>
       <c r="D75">
-        <v>0.0820418484769959</v>
+        <v>-0.08189171531999695</v>
       </c>
       <c r="E75">
-        <v>0.1768867423061551</v>
+        <v>0.03984685351965834</v>
       </c>
       <c r="F75">
-        <v>0.08997922963146364</v>
+        <v>0.1245503806790979</v>
       </c>
       <c r="G75">
-        <v>0.1491435940038384</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.2211295317854225</v>
+      </c>
+      <c r="H75">
+        <v>-0.03471834948830049</v>
+      </c>
+      <c r="I75">
+        <v>0.01576012170363003</v>
+      </c>
+      <c r="J75">
+        <v>-0.1352968982093885</v>
+      </c>
+      <c r="K75">
+        <v>-0.09597757566375179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.02488332138676647</v>
+        <v>0.0427499283905271</v>
       </c>
       <c r="C76">
-        <v>-0.106836446443448</v>
+        <v>-0.1210839950966975</v>
       </c>
       <c r="D76">
-        <v>0.05780082159340248</v>
+        <v>-0.07148041727776727</v>
       </c>
       <c r="E76">
-        <v>0.08113649683165479</v>
+        <v>-0.01547933696489059</v>
       </c>
       <c r="F76">
-        <v>0.08599391295056501</v>
+        <v>0.08663609112658982</v>
       </c>
       <c r="G76">
-        <v>0.02473423369012012</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.07678497570931335</v>
+      </c>
+      <c r="H76">
+        <v>-0.02237988207632284</v>
+      </c>
+      <c r="I76">
+        <v>-0.05878588548399029</v>
+      </c>
+      <c r="J76">
+        <v>-0.01096756564614917</v>
+      </c>
+      <c r="K76">
+        <v>-0.02481261116302807</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.07745450639070878</v>
+        <v>0.05134486217167336</v>
       </c>
       <c r="C77">
-        <v>-0.2805246443400264</v>
+        <v>-0.3857246610337373</v>
       </c>
       <c r="D77">
-        <v>-0.8610120988380745</v>
+        <v>0.9049832331695606</v>
       </c>
       <c r="E77">
-        <v>0.3091119910452365</v>
+        <v>0.03227055484826068</v>
       </c>
       <c r="F77">
-        <v>0.06248737158408458</v>
+        <v>0.09217624557305105</v>
       </c>
       <c r="G77">
-        <v>-0.06062155039015638</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03028749944643458</v>
+      </c>
+      <c r="H77">
+        <v>0.05169968836677376</v>
+      </c>
+      <c r="I77">
+        <v>-0.03643398719689853</v>
+      </c>
+      <c r="J77">
+        <v>-0.01694451548190148</v>
+      </c>
+      <c r="K77">
+        <v>-0.007272349229701376</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02775466329613641</v>
+        <v>0.03498926783955</v>
       </c>
       <c r="C78">
-        <v>-0.1453090678871727</v>
+        <v>-0.1146176746049904</v>
       </c>
       <c r="D78">
-        <v>0.0937581087328368</v>
+        <v>-0.09587022393321332</v>
       </c>
       <c r="E78">
-        <v>-0.07002801016701818</v>
+        <v>-0.04873280883522654</v>
       </c>
       <c r="F78">
-        <v>0.09079486628274586</v>
+        <v>-0.00355551693523692</v>
       </c>
       <c r="G78">
-        <v>0.05784383966572654</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1241078034437712</v>
+      </c>
+      <c r="H78">
+        <v>0.05640467164194125</v>
+      </c>
+      <c r="I78">
+        <v>-0.01302297646836307</v>
+      </c>
+      <c r="J78">
+        <v>0.05706175353172693</v>
+      </c>
+      <c r="K78">
+        <v>0.4205198015871083</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.03176270915972507</v>
+        <v>0.05595755156573393</v>
       </c>
       <c r="C79">
-        <v>-0.1835770531041024</v>
+        <v>-0.1437593368003219</v>
       </c>
       <c r="D79">
-        <v>0.09837316141945539</v>
+        <v>-0.06594660693485177</v>
       </c>
       <c r="E79">
-        <v>0.1125663219729151</v>
+        <v>-0.01853622450915374</v>
       </c>
       <c r="F79">
-        <v>0.1345321283442339</v>
+        <v>0.07035206611791399</v>
       </c>
       <c r="G79">
-        <v>0.1718573927108227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2309417568549756</v>
+      </c>
+      <c r="H79">
+        <v>-0.005009444786568512</v>
+      </c>
+      <c r="I79">
+        <v>-0.01172783794447443</v>
+      </c>
+      <c r="J79">
+        <v>-0.09821292013850443</v>
+      </c>
+      <c r="K79">
+        <v>0.05127619913951677</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.01082315703914202</v>
+        <v>0.02092240678368809</v>
       </c>
       <c r="C80">
-        <v>-0.04328451229641474</v>
+        <v>-0.04868940999394231</v>
       </c>
       <c r="D80">
-        <v>0.05128716316975482</v>
+        <v>-0.03876189791139206</v>
       </c>
       <c r="E80">
-        <v>-0.0138818490683397</v>
+        <v>-0.04479302616687396</v>
       </c>
       <c r="F80">
-        <v>0.03417648864511882</v>
+        <v>-0.03024290151716749</v>
       </c>
       <c r="G80">
-        <v>0.00828335152784406</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.06451970809284398</v>
+      </c>
+      <c r="H80">
+        <v>-0.02874925175598532</v>
+      </c>
+      <c r="I80">
+        <v>0.03569363629046384</v>
+      </c>
+      <c r="J80">
+        <v>-0.02825375571013328</v>
+      </c>
+      <c r="K80">
+        <v>-0.06465557324646524</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.01150616631678143</v>
+        <v>0.01759972864220965</v>
       </c>
       <c r="C81">
-        <v>-0.07761840058922671</v>
+        <v>-0.09875756003512426</v>
       </c>
       <c r="D81">
-        <v>0.07967685598025222</v>
+        <v>-0.05456730383964669</v>
       </c>
       <c r="E81">
-        <v>0.0881036562095501</v>
+        <v>-0.01646289450529786</v>
       </c>
       <c r="F81">
-        <v>0.09413502838934484</v>
+        <v>0.04925849328245386</v>
       </c>
       <c r="G81">
-        <v>0.06065942218358671</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1157804438507488</v>
+      </c>
+      <c r="H81">
+        <v>0.03727356340017807</v>
+      </c>
+      <c r="I81">
+        <v>-0.01192061743333901</v>
+      </c>
+      <c r="J81">
+        <v>-0.06180169540562793</v>
+      </c>
+      <c r="K81">
+        <v>-0.02402290773102244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.02923271803823757</v>
+        <v>0.04645557161718671</v>
       </c>
       <c r="C82">
-        <v>-0.08540961077293757</v>
+        <v>-0.1026323206180671</v>
       </c>
       <c r="D82">
-        <v>0.07254444453538542</v>
+        <v>-0.06559072201757006</v>
       </c>
       <c r="E82">
-        <v>0.1034178395292747</v>
+        <v>-0.01963988273508841</v>
       </c>
       <c r="F82">
-        <v>0.07956955713317293</v>
+        <v>0.0779408801702956</v>
       </c>
       <c r="G82">
-        <v>0.01529730118277498</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.09108036081744508</v>
+      </c>
+      <c r="H82">
+        <v>0.0001821075315710344</v>
+      </c>
+      <c r="I82">
+        <v>-0.02838336033103429</v>
+      </c>
+      <c r="J82">
+        <v>-0.02823248384114543</v>
+      </c>
+      <c r="K82">
+        <v>-0.007509536508398091</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.005060068234308281</v>
+        <v>-0.0005319003829594197</v>
       </c>
       <c r="C83">
-        <v>-0.02958951806919487</v>
+        <v>0.02045973113471255</v>
       </c>
       <c r="D83">
-        <v>-0.1670377105007295</v>
+        <v>0.0665125407236364</v>
       </c>
       <c r="E83">
-        <v>-0.5898315522981423</v>
+        <v>-0.9511211405854642</v>
       </c>
       <c r="F83">
-        <v>0.7118570854344251</v>
+        <v>-0.1374086615592442</v>
       </c>
       <c r="G83">
-        <v>0.03797041488714528</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03876225020611826</v>
+      </c>
+      <c r="H83">
+        <v>-0.1008103464257931</v>
+      </c>
+      <c r="I83">
+        <v>-0.02282137576025846</v>
+      </c>
+      <c r="J83">
+        <v>0.05605243850547473</v>
+      </c>
+      <c r="K83">
+        <v>0.02015087427660626</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.003093614530418106</v>
+        <v>0.00014360591574012</v>
       </c>
       <c r="C84">
-        <v>-0.07254998165549201</v>
+        <v>-0.04649350650491312</v>
       </c>
       <c r="D84">
-        <v>0.03468502941425387</v>
+        <v>-0.06122334783311057</v>
       </c>
       <c r="E84">
-        <v>-0.06258343431398397</v>
+        <v>0.02588143506456169</v>
       </c>
       <c r="F84">
-        <v>-0.148313598188464</v>
+        <v>-0.08943355221039959</v>
       </c>
       <c r="G84">
-        <v>0.07327310282449999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.04272676955760542</v>
+      </c>
+      <c r="H84">
+        <v>0.08722046298666201</v>
+      </c>
+      <c r="I84">
+        <v>-0.09076097041588044</v>
+      </c>
+      <c r="J84">
+        <v>0.09142541604326369</v>
+      </c>
+      <c r="K84">
+        <v>-0.06285515288243564</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.02026907479677705</v>
+        <v>0.02965402963589273</v>
       </c>
       <c r="C85">
-        <v>-0.1336481134837497</v>
+        <v>-0.1178682442438027</v>
       </c>
       <c r="D85">
-        <v>0.08508643225923512</v>
+        <v>-0.08117275036626195</v>
       </c>
       <c r="E85">
-        <v>0.1179554526806163</v>
+        <v>-0.02015865258213085</v>
       </c>
       <c r="F85">
-        <v>0.1343842505874261</v>
+        <v>0.1373713100753758</v>
       </c>
       <c r="G85">
-        <v>0.1174094509445708</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.2084540304904228</v>
+      </c>
+      <c r="H85">
+        <v>-0.05063782441199022</v>
+      </c>
+      <c r="I85">
+        <v>-0.06452810758104986</v>
+      </c>
+      <c r="J85">
+        <v>-0.1108255760057854</v>
+      </c>
+      <c r="K85">
+        <v>-0.04656049947298835</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01905129772112008</v>
+        <v>0.0150986237025732</v>
       </c>
       <c r="C86">
-        <v>-0.07404478556414276</v>
+        <v>-0.08312210248607649</v>
       </c>
       <c r="D86">
-        <v>-0.03393238267374802</v>
+        <v>-0.02621084230903245</v>
       </c>
       <c r="E86">
-        <v>-0.01662864768965035</v>
+        <v>0.007457928158162532</v>
       </c>
       <c r="F86">
-        <v>-0.06428069716254051</v>
+        <v>-0.0841545245774442</v>
       </c>
       <c r="G86">
-        <v>-0.04642361680078678</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.04758200693947182</v>
+      </c>
+      <c r="H86">
+        <v>0.008374347986664196</v>
+      </c>
+      <c r="I86">
+        <v>0.1516740160747053</v>
+      </c>
+      <c r="J86">
+        <v>-0.09870355817135174</v>
+      </c>
+      <c r="K86">
+        <v>0.1845899281652116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.03614710621953579</v>
+        <v>0.02654871209679091</v>
       </c>
       <c r="C87">
-        <v>-0.1574125185287895</v>
+        <v>-0.1197880254299092</v>
       </c>
       <c r="D87">
-        <v>0.01568367636332103</v>
+        <v>-0.01671370344301136</v>
       </c>
       <c r="E87">
-        <v>-0.09943253058540415</v>
+        <v>0.01140632800783952</v>
       </c>
       <c r="F87">
-        <v>-0.0633346081419645</v>
+        <v>-0.07137552883511177</v>
       </c>
       <c r="G87">
-        <v>0.02498991383919312</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.008446179256777896</v>
+      </c>
+      <c r="H87">
+        <v>0.03860016265298415</v>
+      </c>
+      <c r="I87">
+        <v>-0.1202230303203676</v>
+      </c>
+      <c r="J87">
+        <v>0.04655109065477746</v>
+      </c>
+      <c r="K87">
+        <v>0.05758911512021764</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.007103581601469081</v>
+        <v>0.03819762567987586</v>
       </c>
       <c r="C88">
-        <v>-0.03814149841673849</v>
+        <v>-0.06268621397128872</v>
       </c>
       <c r="D88">
-        <v>0.05093958735771169</v>
+        <v>-0.04343718412113667</v>
       </c>
       <c r="E88">
-        <v>0.05430193588234449</v>
+        <v>0.007099883919899385</v>
       </c>
       <c r="F88">
-        <v>0.02356171538643279</v>
+        <v>0.02365015613169625</v>
       </c>
       <c r="G88">
-        <v>-0.01832793524156585</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02696323537871577</v>
+      </c>
+      <c r="H88">
+        <v>0.00259376588005457</v>
+      </c>
+      <c r="I88">
+        <v>-0.00746433280737787</v>
+      </c>
+      <c r="J88">
+        <v>-0.02117026442886821</v>
+      </c>
+      <c r="K88">
+        <v>-0.07309511922481088</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.3861662696347856</v>
+        <v>0.389578625795358</v>
       </c>
       <c r="C89">
-        <v>0.09455103296658558</v>
+        <v>0.1187655070095041</v>
       </c>
       <c r="D89">
-        <v>0.1119578168326854</v>
+        <v>0.03226648853632094</v>
       </c>
       <c r="E89">
-        <v>-0.08479926597061474</v>
+        <v>0.04060280001593183</v>
       </c>
       <c r="F89">
-        <v>-0.07665132637036834</v>
+        <v>-0.05756549857297217</v>
       </c>
       <c r="G89">
-        <v>0.09322894894425179</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03695407166489122</v>
+      </c>
+      <c r="H89">
+        <v>0.02188733016298088</v>
+      </c>
+      <c r="I89">
+        <v>-0.2184225470381433</v>
+      </c>
+      <c r="J89">
+        <v>0.7029736455302673</v>
+      </c>
+      <c r="K89">
+        <v>0.01245465551914696</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3043622885368006</v>
+        <v>0.3153902322224232</v>
       </c>
       <c r="C90">
-        <v>0.03683921766073945</v>
+        <v>0.07719576533603427</v>
       </c>
       <c r="D90">
-        <v>-0.01453895493628361</v>
+        <v>0.01741889500832822</v>
       </c>
       <c r="E90">
-        <v>-0.07399274805804801</v>
+        <v>-0.007994629914889058</v>
       </c>
       <c r="F90">
-        <v>0.01167438268690301</v>
+        <v>-0.04056359847649194</v>
       </c>
       <c r="G90">
-        <v>-0.01556535474926992</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01262122162168739</v>
+      </c>
+      <c r="H90">
+        <v>0.0202226911071345</v>
+      </c>
+      <c r="I90">
+        <v>0.01947170477914014</v>
+      </c>
+      <c r="J90">
+        <v>-0.08222721161518516</v>
+      </c>
+      <c r="K90">
+        <v>-0.0003899391271238108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.03524105371643586</v>
+        <v>0.05335299503900958</v>
       </c>
       <c r="C91">
-        <v>-0.08272003730074153</v>
+        <v>-0.08326889117893502</v>
       </c>
       <c r="D91">
-        <v>0.050282192672123</v>
+        <v>-0.04362058645960359</v>
       </c>
       <c r="E91">
-        <v>0.0591422845323271</v>
+        <v>-0.03834900469636194</v>
       </c>
       <c r="F91">
-        <v>0.07952893858306681</v>
+        <v>0.0565110376688066</v>
       </c>
       <c r="G91">
-        <v>0.05984819101706623</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.07720177641562523</v>
+      </c>
+      <c r="H91">
+        <v>-0.03178251747582533</v>
+      </c>
+      <c r="I91">
+        <v>-0.006504166502022611</v>
+      </c>
+      <c r="J91">
+        <v>-0.002442432667799727</v>
+      </c>
+      <c r="K91">
+        <v>-0.0504722952478077</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3827769836650631</v>
+        <v>0.3536265762820964</v>
       </c>
       <c r="C92">
-        <v>0.08550601622049182</v>
+        <v>0.1215522835133659</v>
       </c>
       <c r="D92">
-        <v>-0.01073255904060067</v>
+        <v>0.05307839310600609</v>
       </c>
       <c r="E92">
-        <v>0.03791508344978114</v>
+        <v>0.04347441820781073</v>
       </c>
       <c r="F92">
-        <v>-0.1052169960268644</v>
+        <v>-0.04663099583725768</v>
       </c>
       <c r="G92">
-        <v>0.02445142079935236</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.01447384293839647</v>
+      </c>
+      <c r="H92">
+        <v>0.06460442680721677</v>
+      </c>
+      <c r="I92">
+        <v>0.04938852038309853</v>
+      </c>
+      <c r="J92">
+        <v>-0.1413001702861071</v>
+      </c>
+      <c r="K92">
+        <v>-0.01095994580506941</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3002875610693256</v>
+        <v>0.3109172490402101</v>
       </c>
       <c r="C93">
-        <v>0.08216544943402997</v>
+        <v>0.1139522297485839</v>
       </c>
       <c r="D93">
-        <v>0.01156946439441035</v>
+        <v>0.007726344529984754</v>
       </c>
       <c r="E93">
-        <v>-0.0583274332706512</v>
+        <v>0.004520206278012817</v>
       </c>
       <c r="F93">
-        <v>-0.03472975080092524</v>
+        <v>-0.0360372043428425</v>
       </c>
       <c r="G93">
-        <v>0.01967960118797199</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04438193362674123</v>
+      </c>
+      <c r="H93">
+        <v>0.0280981404698992</v>
+      </c>
+      <c r="I93">
+        <v>0.05356637732771913</v>
+      </c>
+      <c r="J93">
+        <v>-0.08877527980713544</v>
+      </c>
+      <c r="K93">
+        <v>0.01460364711366335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.04725613570759361</v>
+        <v>0.07825690568314517</v>
       </c>
       <c r="C94">
-        <v>-0.2112169511097742</v>
+        <v>-0.164554734772585</v>
       </c>
       <c r="D94">
-        <v>0.1534737714650016</v>
+        <v>-0.1023488515374902</v>
       </c>
       <c r="E94">
-        <v>0.2484125709347823</v>
+        <v>-0.02274521214593762</v>
       </c>
       <c r="F94">
-        <v>0.2082763598516638</v>
+        <v>0.1679917598786927</v>
       </c>
       <c r="G94">
-        <v>0.5486284415425967</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.5345952706184232</v>
+      </c>
+      <c r="H94">
+        <v>-0.223494060658252</v>
+      </c>
+      <c r="I94">
+        <v>0.05387021833802892</v>
+      </c>
+      <c r="J94">
+        <v>0.1805543304308164</v>
+      </c>
+      <c r="K94">
+        <v>-0.2621587498630026</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.03844646483772213</v>
+        <v>0.04014851260320818</v>
       </c>
       <c r="C95">
-        <v>-0.09415009285214054</v>
+        <v>-0.1280216963467627</v>
       </c>
       <c r="D95">
-        <v>0.03410488441292913</v>
+        <v>-0.05823033536364272</v>
       </c>
       <c r="E95">
-        <v>0.0289757916938915</v>
+        <v>0.01570408686281108</v>
       </c>
       <c r="F95">
-        <v>0.08379238509049926</v>
+        <v>0.07541387027517536</v>
       </c>
       <c r="G95">
-        <v>-0.1115859124381497</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.05190271298043581</v>
+      </c>
+      <c r="H95">
+        <v>0.07662825107357228</v>
+      </c>
+      <c r="I95">
+        <v>-0.133702435117592</v>
+      </c>
+      <c r="J95">
+        <v>0.1234343649898432</v>
+      </c>
+      <c r="K95">
+        <v>-0.2448804988327666</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.000227335320010914</v>
+        <v>0.01323875420906757</v>
       </c>
       <c r="C97">
-        <v>0.0004870301108309247</v>
+        <v>-0.01798876195314384</v>
       </c>
       <c r="D97">
-        <v>5.118877432134373e-05</v>
+        <v>0.01121574268230833</v>
       </c>
       <c r="E97">
-        <v>1.378599661975212e-05</v>
+        <v>0.03126459900421415</v>
       </c>
       <c r="F97">
-        <v>-0.00046489147574877</v>
+        <v>-0.006927529637012658</v>
       </c>
       <c r="G97">
-        <v>0.0001976332334766239</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.0225627949491074</v>
+      </c>
+      <c r="H97">
+        <v>0.04787608794533894</v>
+      </c>
+      <c r="I97">
+        <v>0.1224494168396733</v>
+      </c>
+      <c r="J97">
+        <v>0.08149042254428022</v>
+      </c>
+      <c r="K97">
+        <v>-0.005165446332217365</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.08949465551224962</v>
+        <v>0.1314395227527246</v>
       </c>
       <c r="C98">
-        <v>-0.1531496422464756</v>
+        <v>-0.1593863881707627</v>
       </c>
       <c r="D98">
-        <v>0.1186503379767526</v>
+        <v>-0.08869919115514469</v>
       </c>
       <c r="E98">
-        <v>0.0750557351767315</v>
+        <v>-0.02772416028140789</v>
       </c>
       <c r="F98">
-        <v>0.08717680255562404</v>
+        <v>0.216570400252406</v>
       </c>
       <c r="G98">
-        <v>-0.2893927404472313</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3282973275452023</v>
+      </c>
+      <c r="H98">
+        <v>-0.319836373122593</v>
+      </c>
+      <c r="I98">
+        <v>0.1133963639801232</v>
+      </c>
+      <c r="J98">
+        <v>-0.05637871005269571</v>
+      </c>
+      <c r="K98">
+        <v>0.07406637615887753</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.0152763007406261</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.04833524251064043</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.007616511208677465</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.01452998405829593</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.05507041719428218</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.0721809856278932</v>
+      </c>
+      <c r="H99">
+        <v>0.12834416990351</v>
+      </c>
+      <c r="I99">
+        <v>0.8365336259271298</v>
+      </c>
+      <c r="J99">
+        <v>0.3318389898297992</v>
+      </c>
+      <c r="K99">
+        <v>0.05789070195424876</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.008611803890109217</v>
+        <v>0.01414442887144012</v>
       </c>
       <c r="C101">
-        <v>-0.07200927090311661</v>
+        <v>-0.08029902290647493</v>
       </c>
       <c r="D101">
-        <v>0.03843078578610311</v>
+        <v>-0.05255587846166241</v>
       </c>
       <c r="E101">
-        <v>-0.03461586283676563</v>
+        <v>-0.05168829688426142</v>
       </c>
       <c r="F101">
-        <v>-0.00468922808835359</v>
+        <v>-0.008460153105596434</v>
       </c>
       <c r="G101">
-        <v>-0.08965960932137235</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1150232360643074</v>
+      </c>
+      <c r="H101">
+        <v>0.2938869719703973</v>
+      </c>
+      <c r="I101">
+        <v>0.0117202946696258</v>
+      </c>
+      <c r="J101">
+        <v>0.0278181988665774</v>
+      </c>
+      <c r="K101">
+        <v>-0.181023153128336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.009428938388678105</v>
+        <v>0.003528244586164002</v>
       </c>
       <c r="C102">
-        <v>-0.0273083439835204</v>
+        <v>-0.01057955334224233</v>
       </c>
       <c r="D102">
-        <v>0.006743876668918358</v>
+        <v>-0.0007513482465697029</v>
       </c>
       <c r="E102">
-        <v>0.01711590826619411</v>
+        <v>-0.006216716224348313</v>
       </c>
       <c r="F102">
-        <v>0.03096718599250262</v>
+        <v>0.005794761752176595</v>
       </c>
       <c r="G102">
-        <v>-0.0002601285279610727</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.003378821981832486</v>
+      </c>
+      <c r="H102">
+        <v>-0.0008947577469939287</v>
+      </c>
+      <c r="I102">
+        <v>-0.001573683742811022</v>
+      </c>
+      <c r="J102">
+        <v>0.0180837473273735</v>
+      </c>
+      <c r="K102">
+        <v>0.00632162260077084</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
